--- a/data/Total_Medals_Rankings_By_Continent/total_medals_per_country_rankings_by_continent.xlsx
+++ b/data/Total_Medals_Rankings_By_Continent/total_medals_per_country_rankings_by_continent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming\Google Drive\Monash Uni\2021 Sem 2\FIT3179\Assignment 2\FIT3179-Assignment-2\data\Total_Medals_Rankings_By_Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D3FE8-216C-4580-B0D2-70FC362FD417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C017E-6C2B-4D0B-972F-565FA904329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27569,7 +27569,7 @@
             <v>118</v>
           </cell>
           <cell r="P1347" t="str">
-            <v>Others</v>
+            <v>Europe</v>
           </cell>
         </row>
         <row r="1348">
@@ -28577,9 +28577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:O113"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113:L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34990,19 +34990,19 @@
       </c>
       <c r="L107">
         <f>RANK(H107, H$107:H$113)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M107">
         <f t="shared" ref="M107:O113" si="39">RANK(I107, I$107:I$113)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N107">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O107">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -35050,19 +35050,19 @@
       </c>
       <c r="L108">
         <f t="shared" ref="L108:L113" si="40">RANK(H108, H$107:H$113)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M108">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N108">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O108">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -35074,55 +35074,55 @@
       </c>
       <c r="C109">
         <f>SUMIFS([1]summer_paralympics_with_contine!$J$2:$J$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A109, [1]summer_paralympics_with_contine!$P$2:$P$1382, B109)</f>
-        <v>703</v>
+        <v>821</v>
       </c>
       <c r="D109">
         <f>SUMIFS([1]summer_paralympics_with_contine!$G$2:$G$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A109, [1]summer_paralympics_with_contine!$P$2:$P$1382, B109)</f>
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="E109">
         <f>SUMIFS([1]summer_paralympics_with_contine!$H$2:$H$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A109, [1]summer_paralympics_with_contine!$P$2:$P$1382, B109)</f>
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="F109">
         <f>SUMIFS([1]summer_paralympics_with_contine!$I$2:$I$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A109, [1]summer_paralympics_with_contine!$P$2:$P$1382, B109)</f>
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="G109">
         <f>COUNTIFS([1]summer_paralympics_with_contine!$B$2:$B$1382, A109, [1]summer_paralympics_with_contine!$P$2:$P$1382, B109)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H109" s="1">
         <f t="shared" si="25"/>
-        <v>15.977272727272727</v>
+        <v>18.244444444444444</v>
       </c>
       <c r="I109" s="1">
         <f t="shared" si="26"/>
-        <v>4.7045454545454541</v>
+        <v>5.4</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="27"/>
-        <v>5.4545454545454541</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="28"/>
-        <v>5.8181818181818183</v>
+        <v>6.7777777777777777</v>
       </c>
       <c r="L109">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M109">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N109">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O109">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -35170,19 +35170,19 @@
       </c>
       <c r="L110">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M110">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N110">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O110">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -35230,19 +35230,19 @@
       </c>
       <c r="L111">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M111">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N111">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O111">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -35290,19 +35290,19 @@
       </c>
       <c r="L112">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M112">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N112">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O112">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -35314,55 +35314,55 @@
       </c>
       <c r="C113">
         <f>SUMIFS([1]summer_paralympics_with_contine!$J$2:$J$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A113, [1]summer_paralympics_with_contine!$P$2:$P$1382, B113)</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <f>SUMIFS([1]summer_paralympics_with_contine!$G$2:$G$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A113, [1]summer_paralympics_with_contine!$P$2:$P$1382, B113)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <f>SUMIFS([1]summer_paralympics_with_contine!$H$2:$H$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A113, [1]summer_paralympics_with_contine!$P$2:$P$1382, B113)</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <f>SUMIFS([1]summer_paralympics_with_contine!$I$2:$I$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A113, [1]summer_paralympics_with_contine!$P$2:$P$1382, B113)</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <f>COUNTIFS([1]summer_paralympics_with_contine!$B$2:$B$1382, A113, [1]summer_paralympics_with_contine!$P$2:$P$1382, B113)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="25"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="27"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="28"/>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M113">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N113">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O113">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Total_Medals_Rankings_By_Continent/total_medals_per_country_rankings_by_continent.xlsx
+++ b/data/Total_Medals_Rankings_By_Continent/total_medals_per_country_rankings_by_continent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming\Google Drive\Monash Uni\2021 Sem 2\FIT3179\Assignment 2\FIT3179-Assignment-2\data\Total_Medals_Rankings_By_Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C017E-6C2B-4D0B-972F-565FA904329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6FA175-9FD0-4199-8F44-2100D14B871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8289,7 +8289,7 @@
             <v>45</v>
           </cell>
           <cell r="P383" t="str">
-            <v>Others</v>
+            <v>Europe</v>
           </cell>
         </row>
         <row r="384">
@@ -28578,8 +28578,8 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113:L113"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32062,7 +32062,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -32122,7 +32122,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -32134,39 +32134,39 @@
       </c>
       <c r="C60">
         <f>SUMIFS([1]summer_paralympics_with_contine!$J$2:$J$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A60, [1]summer_paralympics_with_contine!$P$2:$P$1382, B60)</f>
-        <v>912</v>
+        <v>957</v>
       </c>
       <c r="D60">
         <f>SUMIFS([1]summer_paralympics_with_contine!$G$2:$G$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A60, [1]summer_paralympics_with_contine!$P$2:$P$1382, B60)</f>
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E60">
         <f>SUMIFS([1]summer_paralympics_with_contine!$H$2:$H$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A60, [1]summer_paralympics_with_contine!$P$2:$P$1382, B60)</f>
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F60">
         <f>SUMIFS([1]summer_paralympics_with_contine!$I$2:$I$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A60, [1]summer_paralympics_with_contine!$P$2:$P$1382, B60)</f>
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G60">
         <f>COUNTIFS([1]summer_paralympics_with_contine!$B$2:$B$1382, A60, [1]summer_paralympics_with_contine!$P$2:$P$1382, B60)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="2"/>
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="3"/>
-        <v>8.6875</v>
+        <v>8.9090909090909083</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="4"/>
-        <v>9.71875</v>
+        <v>9.8484848484848477</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="5"/>
-        <v>10.09375</v>
+        <v>10.242424242424242</v>
       </c>
       <c r="L60">
         <f t="shared" si="22"/>
@@ -32174,7 +32174,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <f t="shared" si="21"/>
@@ -32374,39 +32374,39 @@
       </c>
       <c r="C64">
         <f>SUMIFS([1]summer_paralympics_with_contine!$J$2:$J$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A64, [1]summer_paralympics_with_contine!$P$2:$P$1382, B64)</f>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <f>SUMIFS([1]summer_paralympics_with_contine!$G$2:$G$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A64, [1]summer_paralympics_with_contine!$P$2:$P$1382, B64)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <f>SUMIFS([1]summer_paralympics_with_contine!$H$2:$H$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A64, [1]summer_paralympics_with_contine!$P$2:$P$1382, B64)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <f>SUMIFS([1]summer_paralympics_with_contine!$I$2:$I$1382, [1]summer_paralympics_with_contine!$B$2:$B$1382, A64, [1]summer_paralympics_with_contine!$P$2:$P$1382, B64)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <f>COUNTIFS([1]summer_paralympics_with_contine!$B$2:$B$1382, A64, [1]summer_paralympics_with_contine!$P$2:$P$1382, B64)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>8</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <f t="shared" si="22"/>
@@ -32414,7 +32414,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64">
         <f t="shared" si="21"/>
@@ -32422,7 +32422,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
